--- a/datasets/03 dataset/dataset.xlsx
+++ b/datasets/03 dataset/dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Projects\LABS\Finding-Ice-Cream-Defect\datasets\03 dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65EEBE12-9253-4024-89E0-121736713533}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6683535B-7B38-4926-886D-7F687BF5962E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9EF109F6-0DB7-4750-A024-536AC0E9E347}"/>
   </bookViews>
@@ -30,12 +30,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>image</t>
   </si>
   <si>
     <t>class</t>
+  </si>
+  <si>
+    <t>dataset 03\train\2.jpg</t>
+  </si>
+  <si>
+    <t>dataset 03\train\3.jpg</t>
+  </si>
+  <si>
+    <t>dataset 03\train\4.jpg</t>
+  </si>
+  <si>
+    <t>dataset 03\train\5.jpg</t>
+  </si>
+  <si>
+    <t>dataset 03\train\6.jpg</t>
+  </si>
+  <si>
+    <t>dataset 03\train\7.jpg</t>
+  </si>
+  <si>
+    <t>dataset 03\train\8.jpg</t>
+  </si>
+  <si>
+    <t>dataset 03\train\9.jpg</t>
+  </si>
+  <si>
+    <t>dataset 03\train\10.jpg</t>
+  </si>
+  <si>
+    <t>dataset 03\train\11.jpg</t>
   </si>
 </sst>
 </file>
@@ -72,8 +102,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -388,16 +421,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C0712B-F8AC-4882-A1CE-04138D59D4F9}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36.88671875" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -408,6 +441,94 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
